--- a/vragen_antwoorden_vijf_dz_plus.xlsx
+++ b/vragen_antwoorden_vijf_dz_plus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10110"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90320473a3d91f65/R Projects/Beleggersprofiel/shiny_vertaler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{7DD4128A-3640-514A-A7E0-5F2AAB1F81D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE935304-80D7-7D4E-A363-6C52BB58BF79}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{7DD4128A-3640-514A-A7E0-5F2AAB1F81D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{367544FF-B4B5-8048-A0AE-E3B064C89D6D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1040" windowWidth="30240" windowHeight="17720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1040" windowWidth="30240" windowHeight="17720" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Risicoprofiel bepalen - bron" sheetId="18" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3242" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3242" uniqueCount="708">
   <si>
     <t>Minder dan 25%</t>
   </si>
@@ -2181,9 +2181,6 @@
   </si>
   <si>
     <t>The investments of the association are made for a period of more than ten years</t>
-  </si>
-  <si>
-    <t>the main adverse impacts on sustainability factors as mentioned above should be taken into account</t>
   </si>
   <si>
     <t>we are not interested in private investments for the portfolio of the association</t>
@@ -5625,7 +5622,7 @@
   </sheetPr>
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView topLeftCell="D41" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D42" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A51" sqref="A51:XFD55"/>
     </sheetView>
   </sheetViews>
@@ -6813,8 +6810,8 @@
   </sheetPr>
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView topLeftCell="D26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="D26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -7832,7 +7829,7 @@
         <v>664</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>700</v>
+        <v>637</v>
       </c>
       <c r="E55" s="77">
         <v>0</v>
@@ -7960,10 +7957,10 @@
         <v>506</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E62" s="70">
         <v>0</v>
@@ -7981,10 +7978,10 @@
         <v>506</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E63" s="26">
         <v>0</v>
@@ -13988,7 +13985,7 @@
   </sheetPr>
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
+    <sheetView topLeftCell="D34" workbookViewId="0">
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
@@ -15914,13 +15911,13 @@
         <v>563</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E40" s="66">
         <v>2</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -15934,7 +15931,7 @@
         <v>563</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E41" s="66">
         <v>3</v>
@@ -16314,10 +16311,10 @@
         <v>506</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E62" s="70">
         <v>0</v>
@@ -16335,7 +16332,7 @@
         <v>506</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D63" s="26" t="s">
         <v>591</v>
@@ -17556,7 +17553,7 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -18683,10 +18680,10 @@
         <v>506</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E62" s="70">
         <v>0</v>
@@ -18704,7 +18701,7 @@
         <v>506</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D63" s="26" t="s">
         <v>636</v>
@@ -19868,7 +19865,7 @@
   </sheetPr>
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="D37" workbookViewId="0">
+    <sheetView topLeftCell="C22" workbookViewId="0">
       <selection activeCell="A48" sqref="A48:XFD52"/>
     </sheetView>
   </sheetViews>
@@ -20553,7 +20550,7 @@
         <v>655</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E37" s="66">
         <v>2</v>
@@ -20574,7 +20571,7 @@
         <v>655</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E38" s="66">
         <v>3</v>
@@ -20960,10 +20957,10 @@
         <v>506</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E59" s="70">
         <v>0</v>
@@ -20981,7 +20978,7 @@
         <v>506</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D60" s="26" t="s">
         <v>670</v>

--- a/vragen_antwoorden_vijf_dz_plus.xlsx
+++ b/vragen_antwoorden_vijf_dz_plus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90320473a3d91f65/R Projects/Beleggersprofiel/shiny_vertaler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{7DD4128A-3640-514A-A7E0-5F2AAB1F81D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{367544FF-B4B5-8048-A0AE-E3B064C89D6D}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{7DD4128A-3640-514A-A7E0-5F2AAB1F81D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E62D67C-4D81-8E49-8849-10DE53F0C48F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1040" windowWidth="30240" windowHeight="17720" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1721,9 +1721,6 @@
     <t>consists mainly of savings and/or bonds</t>
   </si>
   <si>
-    <t>is invested in a portfolio of shares and bonds</t>
-  </si>
-  <si>
     <t>is mainly invested in shares and other risk-bearing investments</t>
   </si>
   <si>
@@ -2205,6 +2202,9 @@
   </si>
   <si>
     <t>Given the possible advantages and disadvantages of private investments mentioned,</t>
+  </si>
+  <si>
+    <t>is invested in a portfolio of equities and bonds</t>
   </si>
 </sst>
 </file>
@@ -6810,8 +6810,8 @@
   </sheetPr>
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -6853,10 +6853,10 @@
         <v>136</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E2" s="70">
         <v>1</v>
@@ -6870,7 +6870,7 @@
         <v>136</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>518</v>
@@ -6887,7 +6887,7 @@
         <v>136</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>519</v>
@@ -6904,7 +6904,7 @@
         <v>136</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>520</v>
@@ -6925,7 +6925,7 @@
         <v>136</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>521</v>
@@ -6942,7 +6942,7 @@
         <v>313</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>523</v>
@@ -6963,7 +6963,7 @@
         <v>313</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>524</v>
@@ -6980,10 +6980,10 @@
         <v>446</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E9" s="65">
         <v>1</v>
@@ -7001,10 +7001,10 @@
         <v>446</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E10" s="65">
         <v>2</v>
@@ -7018,10 +7018,10 @@
         <v>446</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E11" s="65">
         <v>3</v>
@@ -7035,10 +7035,10 @@
         <v>447</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E12" s="65">
         <v>1</v>
@@ -7052,10 +7052,10 @@
         <v>447</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E13" s="65">
         <v>2</v>
@@ -7073,7 +7073,7 @@
         <v>447</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>532</v>
@@ -7090,7 +7090,7 @@
         <v>138</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>534</v>
@@ -7107,7 +7107,7 @@
         <v>138</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>535</v>
@@ -7128,7 +7128,7 @@
         <v>138</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>536</v>
@@ -7145,10 +7145,10 @@
         <v>139</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E18" s="65">
         <v>1</v>
@@ -7162,10 +7162,10 @@
         <v>139</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E19" s="65">
         <v>2</v>
@@ -7179,10 +7179,10 @@
         <v>139</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E20" s="65">
         <v>3</v>
@@ -7200,10 +7200,10 @@
         <v>189</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E21" s="65">
         <v>1</v>
@@ -7217,10 +7217,10 @@
         <v>189</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E22" s="65">
         <v>2</v>
@@ -7238,10 +7238,10 @@
         <v>189</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E23" s="65">
         <v>3</v>
@@ -7255,7 +7255,7 @@
         <v>217</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>545</v>
@@ -7272,17 +7272,17 @@
         <v>217</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>546</v>
+        <v>707</v>
       </c>
       <c r="E25" s="90">
         <v>0</v>
       </c>
       <c r="F25" s="26" t="str">
         <f>D25</f>
-        <v>is invested in a portfolio of shares and bonds</v>
+        <v>is invested in a portfolio of equities and bonds</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -7293,10 +7293,10 @@
         <v>217</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E26" s="90">
         <v>0</v>
@@ -7310,10 +7310,10 @@
         <v>221</v>
       </c>
       <c r="C27" s="26" t="s">
+        <v>547</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>548</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>549</v>
       </c>
       <c r="E27" s="76">
         <v>1</v>
@@ -7327,10 +7327,10 @@
         <v>221</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E28" s="76">
         <v>2</v>
@@ -7348,10 +7348,10 @@
         <v>221</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E29" s="76">
         <v>3</v>
@@ -7365,10 +7365,10 @@
         <v>231</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E30" s="76">
         <v>1</v>
@@ -7382,10 +7382,10 @@
         <v>231</v>
       </c>
       <c r="C31" s="26" t="s">
+        <v>551</v>
+      </c>
+      <c r="D31" s="26" t="s">
         <v>552</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>553</v>
       </c>
       <c r="E31" s="76">
         <v>2</v>
@@ -7403,10 +7403,10 @@
         <v>231</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E32" s="76">
         <v>3</v>
@@ -7420,10 +7420,10 @@
         <v>195</v>
       </c>
       <c r="C33" s="26" t="s">
+        <v>554</v>
+      </c>
+      <c r="D33" s="26" t="s">
         <v>555</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>556</v>
       </c>
       <c r="E33" s="76">
         <v>1</v>
@@ -7437,10 +7437,10 @@
         <v>195</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E34" s="76">
         <v>3</v>
@@ -7454,10 +7454,10 @@
         <v>195</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E35" s="76">
         <v>2</v>
@@ -7475,10 +7475,10 @@
         <v>194</v>
       </c>
       <c r="C36" s="26" t="s">
+        <v>558</v>
+      </c>
+      <c r="D36" s="26" t="s">
         <v>559</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>560</v>
       </c>
       <c r="E36" s="76">
         <v>1</v>
@@ -7492,10 +7492,10 @@
         <v>194</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E37" s="76">
         <v>2</v>
@@ -7509,10 +7509,10 @@
         <v>194</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E38" s="76">
         <v>3</v>
@@ -7530,10 +7530,10 @@
         <v>190</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E39" s="66">
         <v>1</v>
@@ -7547,10 +7547,10 @@
         <v>190</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E40" s="66">
         <v>2</v>
@@ -7568,10 +7568,10 @@
         <v>190</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E41" s="66">
         <v>3</v>
@@ -7585,10 +7585,10 @@
         <v>141</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E42" s="66">
         <v>1</v>
@@ -7606,10 +7606,10 @@
         <v>141</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E43" s="66">
         <v>2</v>
@@ -7623,10 +7623,10 @@
         <v>141</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E44" s="66">
         <v>3</v>
@@ -7640,10 +7640,10 @@
         <v>218</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E45" s="66">
         <v>1</v>
@@ -7657,10 +7657,10 @@
         <v>218</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E46" s="66">
         <v>2</v>
@@ -7678,10 +7678,10 @@
         <v>218</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E47" s="66">
         <v>3</v>
@@ -7695,10 +7695,10 @@
         <v>219</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E48" s="66">
         <v>1</v>
@@ -7712,10 +7712,10 @@
         <v>219</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E49" s="66">
         <v>2</v>
@@ -7729,10 +7729,10 @@
         <v>219</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E50" s="66">
         <v>3</v>
@@ -7750,10 +7750,10 @@
         <v>192</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E51" s="77">
         <v>0</v>
@@ -7767,10 +7767,10 @@
         <v>192</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E52" s="77">
         <v>0</v>
@@ -7788,10 +7788,10 @@
         <v>192</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E53" s="77">
         <v>0</v>
@@ -7805,10 +7805,10 @@
         <v>193</v>
       </c>
       <c r="C54" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="D54" s="26" t="s">
         <v>664</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>665</v>
       </c>
       <c r="E54" s="77">
         <v>0</v>
@@ -7826,10 +7826,10 @@
         <v>193</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E55" s="77">
         <v>0</v>
@@ -7843,10 +7843,10 @@
         <v>279</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E56" s="77">
         <v>0</v>
@@ -7864,10 +7864,10 @@
         <v>279</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E57" s="77">
         <v>0</v>
@@ -7881,10 +7881,10 @@
         <v>280</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E58" s="77">
         <v>0</v>
@@ -7902,10 +7902,10 @@
         <v>280</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E59" s="77">
         <v>0</v>
@@ -7919,10 +7919,10 @@
         <v>472</v>
       </c>
       <c r="C60" s="26" t="s">
+        <v>588</v>
+      </c>
+      <c r="D60" s="26" t="s">
         <v>589</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>590</v>
       </c>
       <c r="E60" s="70">
         <v>0</v>
@@ -7940,7 +7940,7 @@
         <v>472</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D61" s="26" t="s">
         <v>524</v>
@@ -7957,10 +7957,10 @@
         <v>506</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E62" s="70">
         <v>0</v>
@@ -7978,10 +7978,10 @@
         <v>506</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E63" s="26">
         <v>0</v>
@@ -15183,8 +15183,8 @@
   </sheetPr>
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="C40" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -15513,7 +15513,7 @@
         <v>139</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>537</v>
@@ -15530,7 +15530,7 @@
         <v>139</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>538</v>
@@ -15547,7 +15547,7 @@
         <v>139</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>539</v>
@@ -15641,13 +15641,13 @@
         <v>544</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>546</v>
+        <v>707</v>
       </c>
       <c r="E25" s="90">
         <v>0</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>546</v>
+        <v>707</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -15661,7 +15661,7 @@
         <v>544</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E26" s="90">
         <v>0</v>
@@ -15675,10 +15675,10 @@
         <v>221</v>
       </c>
       <c r="C27" s="26" t="s">
+        <v>547</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>548</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>549</v>
       </c>
       <c r="E27" s="76">
         <v>1</v>
@@ -15692,16 +15692,16 @@
         <v>221</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E28" s="76">
         <v>2</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -15712,10 +15712,10 @@
         <v>221</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E29" s="76">
         <v>3</v>
@@ -15729,10 +15729,10 @@
         <v>231</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E30" s="76">
         <v>1</v>
@@ -15746,16 +15746,16 @@
         <v>231</v>
       </c>
       <c r="C31" s="26" t="s">
+        <v>551</v>
+      </c>
+      <c r="D31" s="26" t="s">
         <v>552</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>553</v>
       </c>
       <c r="E31" s="76">
         <v>2</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -15766,10 +15766,10 @@
         <v>231</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E32" s="76">
         <v>3</v>
@@ -15783,10 +15783,10 @@
         <v>195</v>
       </c>
       <c r="C33" s="26" t="s">
+        <v>554</v>
+      </c>
+      <c r="D33" s="26" t="s">
         <v>555</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>556</v>
       </c>
       <c r="E33" s="76">
         <v>1</v>
@@ -15800,10 +15800,10 @@
         <v>195</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E34" s="76">
         <v>3</v>
@@ -15817,16 +15817,16 @@
         <v>195</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E35" s="76">
         <v>2</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -15837,10 +15837,10 @@
         <v>194</v>
       </c>
       <c r="C36" s="26" t="s">
+        <v>558</v>
+      </c>
+      <c r="D36" s="26" t="s">
         <v>559</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>560</v>
       </c>
       <c r="E36" s="76">
         <v>1</v>
@@ -15854,10 +15854,10 @@
         <v>194</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E37" s="76">
         <v>2</v>
@@ -15871,16 +15871,16 @@
         <v>194</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E38" s="76">
         <v>3</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -15891,10 +15891,10 @@
         <v>190</v>
       </c>
       <c r="C39" s="26" t="s">
+        <v>562</v>
+      </c>
+      <c r="D39" s="26" t="s">
         <v>563</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>564</v>
       </c>
       <c r="E39" s="66">
         <v>1</v>
@@ -15908,16 +15908,16 @@
         <v>190</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E40" s="66">
         <v>2</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -15928,10 +15928,10 @@
         <v>190</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E41" s="66">
         <v>3</v>
@@ -15945,16 +15945,16 @@
         <v>141</v>
       </c>
       <c r="C42" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="D42" s="26" t="s">
         <v>565</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>566</v>
       </c>
       <c r="E42" s="66">
         <v>1</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -15965,10 +15965,10 @@
         <v>141</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E43" s="66">
         <v>2</v>
@@ -15982,10 +15982,10 @@
         <v>141</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E44" s="66">
         <v>3</v>
@@ -15999,10 +15999,10 @@
         <v>218</v>
       </c>
       <c r="C45" s="26" t="s">
+        <v>568</v>
+      </c>
+      <c r="D45" s="26" t="s">
         <v>569</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>570</v>
       </c>
       <c r="E45" s="66">
         <v>1</v>
@@ -16016,16 +16016,16 @@
         <v>218</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E46" s="66">
         <v>2</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -16036,10 +16036,10 @@
         <v>218</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E47" s="66">
         <v>3</v>
@@ -16053,10 +16053,10 @@
         <v>219</v>
       </c>
       <c r="C48" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="D48" s="26" t="s">
         <v>573</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>574</v>
       </c>
       <c r="E48" s="66">
         <v>1</v>
@@ -16070,10 +16070,10 @@
         <v>219</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E49" s="66">
         <v>2</v>
@@ -16087,16 +16087,16 @@
         <v>219</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E50" s="66">
         <v>3</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -16107,10 +16107,10 @@
         <v>192</v>
       </c>
       <c r="C51" s="26" t="s">
+        <v>576</v>
+      </c>
+      <c r="D51" s="26" t="s">
         <v>577</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>578</v>
       </c>
       <c r="E51" s="77">
         <v>0</v>
@@ -16124,16 +16124,16 @@
         <v>192</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E52" s="77">
         <v>0</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -16144,10 +16144,10 @@
         <v>192</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E53" s="77">
         <v>0</v>
@@ -16161,10 +16161,10 @@
         <v>193</v>
       </c>
       <c r="C54" s="26" t="s">
+        <v>580</v>
+      </c>
+      <c r="D54" s="26" t="s">
         <v>581</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>582</v>
       </c>
       <c r="E54" s="77">
         <v>0</v>
@@ -16182,10 +16182,10 @@
         <v>193</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D55" s="87" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E55" s="77">
         <v>0</v>
@@ -16200,16 +16200,16 @@
         <v>279</v>
       </c>
       <c r="C56" s="26" t="s">
+        <v>582</v>
+      </c>
+      <c r="D56" s="26" t="s">
         <v>583</v>
       </c>
-      <c r="D56" s="26" t="s">
-        <v>584</v>
-      </c>
       <c r="E56" s="77">
         <v>0</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -16220,10 +16220,10 @@
         <v>279</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E57" s="77">
         <v>0</v>
@@ -16237,16 +16237,16 @@
         <v>280</v>
       </c>
       <c r="C58" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="D58" s="26" t="s">
         <v>586</v>
       </c>
-      <c r="D58" s="26" t="s">
-        <v>587</v>
-      </c>
       <c r="E58" s="77">
         <v>0</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -16257,10 +16257,10 @@
         <v>280</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E59" s="77">
         <v>0</v>
@@ -16274,16 +16274,16 @@
         <v>472</v>
       </c>
       <c r="C60" s="26" t="s">
+        <v>588</v>
+      </c>
+      <c r="D60" s="26" t="s">
         <v>589</v>
       </c>
-      <c r="D60" s="26" t="s">
-        <v>590</v>
-      </c>
       <c r="E60" s="70">
         <v>0</v>
       </c>
       <c r="F60" s="26" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -16294,7 +16294,7 @@
         <v>472</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D61" s="26" t="s">
         <v>524</v>
@@ -16311,10 +16311,10 @@
         <v>506</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E62" s="70">
         <v>0</v>
@@ -16332,10 +16332,10 @@
         <v>506</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E63" s="26">
         <v>0</v>
@@ -17552,8 +17552,8 @@
   </sheetPr>
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -17595,10 +17595,10 @@
         <v>136</v>
       </c>
       <c r="C2" s="26" t="s">
+        <v>592</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>593</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>594</v>
       </c>
       <c r="E2" s="70">
         <v>1</v>
@@ -17612,7 +17612,7 @@
         <v>136</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>518</v>
@@ -17629,7 +17629,7 @@
         <v>136</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>519</v>
@@ -17646,7 +17646,7 @@
         <v>136</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>520</v>
@@ -17666,7 +17666,7 @@
         <v>136</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>521</v>
@@ -17720,10 +17720,10 @@
         <v>446</v>
       </c>
       <c r="C9" s="26" t="s">
+        <v>594</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>595</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>596</v>
       </c>
       <c r="E9" s="65">
         <v>1</v>
@@ -17737,16 +17737,16 @@
         <v>446</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E10" s="65">
         <v>2</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.25">
@@ -17757,7 +17757,7 @@
         <v>446</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>528</v>
@@ -17774,7 +17774,7 @@
         <v>447</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>530</v>
@@ -17791,7 +17791,7 @@
         <v>447</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>531</v>
@@ -17808,7 +17808,7 @@
         <v>447</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>532</v>
@@ -17828,7 +17828,7 @@
         <v>138</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>534</v>
@@ -17845,7 +17845,7 @@
         <v>138</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>535</v>
@@ -17865,7 +17865,7 @@
         <v>138</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>536</v>
@@ -17882,10 +17882,10 @@
         <v>139</v>
       </c>
       <c r="C18" s="26" t="s">
+        <v>599</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>600</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>601</v>
       </c>
       <c r="E18" s="65">
         <v>1</v>
@@ -17899,10 +17899,10 @@
         <v>139</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E19" s="65">
         <v>2</v>
@@ -17916,16 +17916,16 @@
         <v>139</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E20" s="65">
         <v>3</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.25">
@@ -17936,10 +17936,10 @@
         <v>189</v>
       </c>
       <c r="C21" s="26" t="s">
+        <v>603</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>604</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>605</v>
       </c>
       <c r="E21" s="65">
         <v>1</v>
@@ -17953,16 +17953,16 @@
         <v>189</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E22" s="65">
         <v>2</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.25">
@@ -17973,10 +17973,10 @@
         <v>189</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E23" s="65">
         <v>3</v>
@@ -17990,7 +17990,7 @@
         <v>217</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>545</v>
@@ -18007,16 +18007,16 @@
         <v>217</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>546</v>
+        <v>707</v>
       </c>
       <c r="E25" s="90">
         <v>0</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>546</v>
+        <v>707</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.25">
@@ -18027,10 +18027,10 @@
         <v>217</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E26" s="90">
         <v>0</v>
@@ -18044,10 +18044,10 @@
         <v>221</v>
       </c>
       <c r="C27" s="26" t="s">
+        <v>608</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>609</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>610</v>
       </c>
       <c r="E27" s="76">
         <v>1</v>
@@ -18061,16 +18061,16 @@
         <v>221</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E28" s="76">
         <v>2</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.25">
@@ -18081,10 +18081,10 @@
         <v>221</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E29" s="76">
         <v>3</v>
@@ -18098,10 +18098,10 @@
         <v>231</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E30" s="76">
         <v>1</v>
@@ -18115,16 +18115,16 @@
         <v>231</v>
       </c>
       <c r="C31" s="26" t="s">
+        <v>611</v>
+      </c>
+      <c r="D31" s="26" t="s">
         <v>612</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>613</v>
       </c>
       <c r="E31" s="76">
         <v>2</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.25">
@@ -18135,10 +18135,10 @@
         <v>231</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E32" s="76">
         <v>3</v>
@@ -18152,10 +18152,10 @@
         <v>195</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E33" s="76">
         <v>1</v>
@@ -18169,16 +18169,16 @@
         <v>195</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E34" s="76">
         <v>3</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.25">
@@ -18189,10 +18189,10 @@
         <v>195</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E35" s="76">
         <v>2</v>
@@ -18206,10 +18206,10 @@
         <v>194</v>
       </c>
       <c r="C36" s="26" t="s">
+        <v>617</v>
+      </c>
+      <c r="D36" s="26" t="s">
         <v>618</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>619</v>
       </c>
       <c r="E36" s="76">
         <v>1</v>
@@ -18223,16 +18223,16 @@
         <v>194</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E37" s="76">
         <v>2</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.25">
@@ -18243,10 +18243,10 @@
         <v>194</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E38" s="76">
         <v>3</v>
@@ -18260,10 +18260,10 @@
         <v>190</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E39" s="66">
         <v>1</v>
@@ -18277,16 +18277,16 @@
         <v>190</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E40" s="66">
         <v>2</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.25">
@@ -18297,10 +18297,10 @@
         <v>190</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E41" s="66">
         <v>3</v>
@@ -18314,10 +18314,10 @@
         <v>141</v>
       </c>
       <c r="C42" s="26" t="s">
+        <v>622</v>
+      </c>
+      <c r="D42" s="26" t="s">
         <v>623</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>624</v>
       </c>
       <c r="E42" s="66">
         <v>1</v>
@@ -18331,16 +18331,16 @@
         <v>141</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E43" s="66">
         <v>2</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.25">
@@ -18351,10 +18351,10 @@
         <v>141</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E44" s="66">
         <v>3</v>
@@ -18368,10 +18368,10 @@
         <v>218</v>
       </c>
       <c r="C45" s="26" t="s">
+        <v>626</v>
+      </c>
+      <c r="D45" s="26" t="s">
         <v>627</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>628</v>
       </c>
       <c r="E45" s="66">
         <v>1</v>
@@ -18385,16 +18385,16 @@
         <v>218</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E46" s="66">
         <v>2</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.25">
@@ -18405,10 +18405,10 @@
         <v>218</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E47" s="66">
         <v>3</v>
@@ -18422,10 +18422,10 @@
         <v>219</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E48" s="66">
         <v>1</v>
@@ -18439,16 +18439,16 @@
         <v>219</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E49" s="66">
         <v>2</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.25">
@@ -18459,10 +18459,10 @@
         <v>219</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E50" s="66">
         <v>3</v>
@@ -18476,10 +18476,10 @@
         <v>192</v>
       </c>
       <c r="C51" s="26" t="s">
+        <v>631</v>
+      </c>
+      <c r="D51" s="26" t="s">
         <v>632</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>633</v>
       </c>
       <c r="E51" s="77">
         <v>0</v>
@@ -18493,16 +18493,16 @@
         <v>192</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E52" s="77">
         <v>0</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.25">
@@ -18513,10 +18513,10 @@
         <v>192</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E53" s="77">
         <v>0</v>
@@ -18530,10 +18530,10 @@
         <v>193</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E54" s="77">
         <v>0</v>
@@ -18551,10 +18551,10 @@
         <v>193</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D55" s="87" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E55" s="77">
         <v>0</v>
@@ -18569,16 +18569,16 @@
         <v>279</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E56" s="77">
         <v>0</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.25">
@@ -18589,10 +18589,10 @@
         <v>279</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E57" s="77">
         <v>0</v>
@@ -18606,16 +18606,16 @@
         <v>280</v>
       </c>
       <c r="C58" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="D58" s="26" t="s">
         <v>586</v>
       </c>
-      <c r="D58" s="26" t="s">
-        <v>587</v>
-      </c>
       <c r="E58" s="77">
         <v>0</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -18626,10 +18626,10 @@
         <v>280</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E59" s="77">
         <v>0</v>
@@ -18643,16 +18643,16 @@
         <v>472</v>
       </c>
       <c r="C60" s="26" t="s">
+        <v>588</v>
+      </c>
+      <c r="D60" s="26" t="s">
         <v>589</v>
       </c>
-      <c r="D60" s="26" t="s">
-        <v>590</v>
-      </c>
       <c r="E60" s="70">
         <v>0</v>
       </c>
       <c r="F60" s="26" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -18663,7 +18663,7 @@
         <v>472</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D61" s="26" t="s">
         <v>524</v>
@@ -18680,10 +18680,10 @@
         <v>506</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E62" s="70">
         <v>0</v>
@@ -18701,10 +18701,10 @@
         <v>506</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E63" s="26">
         <v>0</v>
@@ -19866,7 +19866,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD52"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -19908,10 +19908,10 @@
         <v>136</v>
       </c>
       <c r="C2" s="26" t="s">
+        <v>637</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>638</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>639</v>
       </c>
       <c r="E2" s="70">
         <v>1</v>
@@ -19925,7 +19925,7 @@
         <v>136</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>518</v>
@@ -19942,10 +19942,10 @@
         <v>136</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E4" s="70">
         <v>3</v>
@@ -19959,7 +19959,7 @@
         <v>136</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>520</v>
@@ -19980,7 +19980,7 @@
         <v>136</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>521</v>
@@ -19997,7 +19997,7 @@
         <v>313</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>523</v>
@@ -20018,7 +20018,7 @@
         <v>313</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>524</v>
@@ -20035,10 +20035,10 @@
         <v>447</v>
       </c>
       <c r="C9" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>642</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>643</v>
       </c>
       <c r="E9" s="65">
         <v>1</v>
@@ -20052,10 +20052,10 @@
         <v>447</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E10" s="65">
         <v>2</v>
@@ -20073,7 +20073,7 @@
         <v>447</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>532</v>
@@ -20090,7 +20090,7 @@
         <v>138</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>534</v>
@@ -20107,7 +20107,7 @@
         <v>138</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>535</v>
@@ -20128,7 +20128,7 @@
         <v>138</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>536</v>
@@ -20145,10 +20145,10 @@
         <v>139</v>
       </c>
       <c r="C15" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>646</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>647</v>
       </c>
       <c r="E15" s="65">
         <v>1</v>
@@ -20162,10 +20162,10 @@
         <v>139</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E16" s="65">
         <v>2</v>
@@ -20179,10 +20179,10 @@
         <v>139</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E17" s="65">
         <v>3</v>
@@ -20200,10 +20200,10 @@
         <v>189</v>
       </c>
       <c r="C18" s="26" t="s">
+        <v>649</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>650</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>651</v>
       </c>
       <c r="E18" s="65">
         <v>1</v>
@@ -20217,10 +20217,10 @@
         <v>189</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E19" s="65">
         <v>2</v>
@@ -20238,10 +20238,10 @@
         <v>189</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E20" s="65">
         <v>3</v>
@@ -20255,7 +20255,7 @@
         <v>217</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>545</v>
@@ -20272,17 +20272,17 @@
         <v>217</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>546</v>
+        <v>707</v>
       </c>
       <c r="E22" s="90">
         <v>0</v>
       </c>
       <c r="F22" s="26" t="str">
         <f>D22</f>
-        <v>is invested in a portfolio of shares and bonds</v>
+        <v>is invested in a portfolio of equities and bonds</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -20293,10 +20293,10 @@
         <v>217</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E23" s="90">
         <v>0</v>
@@ -20310,10 +20310,10 @@
         <v>221</v>
       </c>
       <c r="C24" s="26" t="s">
+        <v>547</v>
+      </c>
+      <c r="D24" s="26" t="s">
         <v>548</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>549</v>
       </c>
       <c r="E24" s="76">
         <v>1</v>
@@ -20327,10 +20327,10 @@
         <v>221</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E25" s="76">
         <v>2</v>
@@ -20348,10 +20348,10 @@
         <v>221</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E26" s="76">
         <v>3</v>
@@ -20365,10 +20365,10 @@
         <v>231</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E27" s="76">
         <v>1</v>
@@ -20382,10 +20382,10 @@
         <v>231</v>
       </c>
       <c r="C28" s="26" t="s">
+        <v>551</v>
+      </c>
+      <c r="D28" s="26" t="s">
         <v>552</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>553</v>
       </c>
       <c r="E28" s="76">
         <v>2</v>
@@ -20403,10 +20403,10 @@
         <v>231</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E29" s="76">
         <v>3</v>
@@ -20420,10 +20420,10 @@
         <v>195</v>
       </c>
       <c r="C30" s="26" t="s">
+        <v>554</v>
+      </c>
+      <c r="D30" s="26" t="s">
         <v>555</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>556</v>
       </c>
       <c r="E30" s="76">
         <v>1</v>
@@ -20437,10 +20437,10 @@
         <v>195</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E31" s="76">
         <v>3</v>
@@ -20454,10 +20454,10 @@
         <v>195</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E32" s="76">
         <v>2</v>
@@ -20475,10 +20475,10 @@
         <v>194</v>
       </c>
       <c r="C33" s="26" t="s">
+        <v>558</v>
+      </c>
+      <c r="D33" s="26" t="s">
         <v>559</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>560</v>
       </c>
       <c r="E33" s="76">
         <v>1</v>
@@ -20492,10 +20492,10 @@
         <v>194</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E34" s="76">
         <v>2</v>
@@ -20509,10 +20509,10 @@
         <v>194</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E35" s="76">
         <v>3</v>
@@ -20530,10 +20530,10 @@
         <v>190</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E36" s="66">
         <v>1</v>
@@ -20547,10 +20547,10 @@
         <v>190</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E37" s="66">
         <v>2</v>
@@ -20568,10 +20568,10 @@
         <v>190</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E38" s="66">
         <v>3</v>
@@ -20585,10 +20585,10 @@
         <v>141</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E39" s="66">
         <v>1</v>
@@ -20606,10 +20606,10 @@
         <v>141</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E40" s="66">
         <v>2</v>
@@ -20623,10 +20623,10 @@
         <v>141</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E41" s="66">
         <v>3</v>
@@ -20640,10 +20640,10 @@
         <v>218</v>
       </c>
       <c r="C42" s="26" t="s">
+        <v>656</v>
+      </c>
+      <c r="D42" s="26" t="s">
         <v>657</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>658</v>
       </c>
       <c r="E42" s="66">
         <v>1</v>
@@ -20657,10 +20657,10 @@
         <v>218</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E43" s="66">
         <v>2</v>
@@ -20678,10 +20678,10 @@
         <v>218</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E44" s="66">
         <v>3</v>
@@ -20695,10 +20695,10 @@
         <v>219</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E45" s="66">
         <v>1</v>
@@ -20712,10 +20712,10 @@
         <v>219</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E46" s="66">
         <v>2</v>
@@ -20729,10 +20729,10 @@
         <v>219</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E47" s="66">
         <v>3</v>
@@ -20750,10 +20750,10 @@
         <v>192</v>
       </c>
       <c r="C48" s="26" t="s">
+        <v>661</v>
+      </c>
+      <c r="D48" s="26" t="s">
         <v>662</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>663</v>
       </c>
       <c r="E48" s="77">
         <v>0</v>
@@ -20767,10 +20767,10 @@
         <v>192</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E49" s="77">
         <v>0</v>
@@ -20788,10 +20788,10 @@
         <v>192</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E50" s="77">
         <v>0</v>
@@ -20805,10 +20805,10 @@
         <v>193</v>
       </c>
       <c r="C51" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="D51" s="26" t="s">
         <v>664</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>665</v>
       </c>
       <c r="E51" s="77">
         <v>0</v>
@@ -20826,10 +20826,10 @@
         <v>193</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E52" s="77">
         <v>0</v>
@@ -20843,10 +20843,10 @@
         <v>279</v>
       </c>
       <c r="C53" s="26" t="s">
+        <v>665</v>
+      </c>
+      <c r="D53" s="26" t="s">
         <v>666</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>667</v>
       </c>
       <c r="E53" s="77">
         <v>0</v>
@@ -20864,10 +20864,10 @@
         <v>279</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E54" s="77">
         <v>0</v>
@@ -20881,10 +20881,10 @@
         <v>280</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E55" s="77">
         <v>0</v>
@@ -20902,10 +20902,10 @@
         <v>280</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E56" s="77">
         <v>0</v>
@@ -20919,10 +20919,10 @@
         <v>472</v>
       </c>
       <c r="C57" s="26" t="s">
+        <v>588</v>
+      </c>
+      <c r="D57" s="26" t="s">
         <v>589</v>
-      </c>
-      <c r="D57" s="26" t="s">
-        <v>590</v>
       </c>
       <c r="E57" s="70">
         <v>0</v>
@@ -20940,7 +20940,7 @@
         <v>472</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D58" s="26" t="s">
         <v>524</v>
@@ -20957,10 +20957,10 @@
         <v>506</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E59" s="70">
         <v>0</v>
@@ -20978,10 +20978,10 @@
         <v>506</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E60" s="26">
         <v>0</v>

--- a/vragen_antwoorden_vijf_dz_plus.xlsx
+++ b/vragen_antwoorden_vijf_dz_plus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90320473a3d91f65/R Projects/Beleggersprofiel/shiny_vertaler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{7DD4128A-3640-514A-A7E0-5F2AAB1F81D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E62D67C-4D81-8E49-8849-10DE53F0C48F}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{7DD4128A-3640-514A-A7E0-5F2AAB1F81D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A46EF214-0E86-E54A-8A16-4ABB1ECD3AC0}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1040" windowWidth="30240" windowHeight="17720" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1766,9 +1766,6 @@
     <t>is limited</t>
   </si>
   <si>
-    <t>is widely available</t>
-  </si>
-  <si>
     <t>When it comes to poor investment results</t>
   </si>
   <si>
@@ -2205,6 +2202,9 @@
   </si>
   <si>
     <t>is invested in a portfolio of equities and bonds</t>
+  </si>
+  <si>
+    <t>is extensive</t>
   </si>
 </sst>
 </file>
@@ -6810,8 +6810,8 @@
   </sheetPr>
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -6853,10 +6853,10 @@
         <v>136</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E2" s="70">
         <v>1</v>
@@ -6870,7 +6870,7 @@
         <v>136</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>518</v>
@@ -6887,7 +6887,7 @@
         <v>136</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>519</v>
@@ -6904,7 +6904,7 @@
         <v>136</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>520</v>
@@ -6925,7 +6925,7 @@
         <v>136</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>521</v>
@@ -6942,7 +6942,7 @@
         <v>313</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>523</v>
@@ -6963,7 +6963,7 @@
         <v>313</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>524</v>
@@ -6980,10 +6980,10 @@
         <v>446</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E9" s="65">
         <v>1</v>
@@ -7001,10 +7001,10 @@
         <v>446</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E10" s="65">
         <v>2</v>
@@ -7018,10 +7018,10 @@
         <v>446</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E11" s="65">
         <v>3</v>
@@ -7035,10 +7035,10 @@
         <v>447</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E12" s="65">
         <v>1</v>
@@ -7052,10 +7052,10 @@
         <v>447</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E13" s="65">
         <v>2</v>
@@ -7073,7 +7073,7 @@
         <v>447</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>532</v>
@@ -7090,7 +7090,7 @@
         <v>138</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>534</v>
@@ -7107,7 +7107,7 @@
         <v>138</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>535</v>
@@ -7128,7 +7128,7 @@
         <v>138</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>536</v>
@@ -7145,10 +7145,10 @@
         <v>139</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E18" s="65">
         <v>1</v>
@@ -7162,10 +7162,10 @@
         <v>139</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E19" s="65">
         <v>2</v>
@@ -7179,10 +7179,10 @@
         <v>139</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E20" s="65">
         <v>3</v>
@@ -7200,10 +7200,10 @@
         <v>189</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E21" s="65">
         <v>1</v>
@@ -7217,10 +7217,10 @@
         <v>189</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E22" s="65">
         <v>2</v>
@@ -7238,10 +7238,10 @@
         <v>189</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E23" s="65">
         <v>3</v>
@@ -7255,7 +7255,7 @@
         <v>217</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>545</v>
@@ -7272,10 +7272,10 @@
         <v>217</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E25" s="90">
         <v>0</v>
@@ -7293,7 +7293,7 @@
         <v>217</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D26" s="26" t="s">
         <v>546</v>
@@ -7512,14 +7512,14 @@
         <v>558</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>561</v>
+        <v>707</v>
       </c>
       <c r="E38" s="76">
         <v>3</v>
       </c>
       <c r="F38" s="26" t="str">
         <f>D38</f>
-        <v>is widely available</v>
+        <v>is extensive</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -7530,10 +7530,10 @@
         <v>190</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E39" s="66">
         <v>1</v>
@@ -7547,10 +7547,10 @@
         <v>190</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E40" s="66">
         <v>2</v>
@@ -7568,10 +7568,10 @@
         <v>190</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E41" s="66">
         <v>3</v>
@@ -7585,10 +7585,10 @@
         <v>141</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E42" s="66">
         <v>1</v>
@@ -7606,10 +7606,10 @@
         <v>141</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E43" s="66">
         <v>2</v>
@@ -7623,10 +7623,10 @@
         <v>141</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E44" s="66">
         <v>3</v>
@@ -7640,10 +7640,10 @@
         <v>218</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E45" s="66">
         <v>1</v>
@@ -7657,10 +7657,10 @@
         <v>218</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E46" s="66">
         <v>2</v>
@@ -7678,10 +7678,10 @@
         <v>218</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E47" s="66">
         <v>3</v>
@@ -7695,10 +7695,10 @@
         <v>219</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E48" s="66">
         <v>1</v>
@@ -7712,10 +7712,10 @@
         <v>219</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E49" s="66">
         <v>2</v>
@@ -7729,10 +7729,10 @@
         <v>219</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E50" s="66">
         <v>3</v>
@@ -7750,10 +7750,10 @@
         <v>192</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E51" s="77">
         <v>0</v>
@@ -7767,10 +7767,10 @@
         <v>192</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E52" s="77">
         <v>0</v>
@@ -7788,10 +7788,10 @@
         <v>192</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E53" s="77">
         <v>0</v>
@@ -7805,10 +7805,10 @@
         <v>193</v>
       </c>
       <c r="C54" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="D54" s="26" t="s">
         <v>663</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>664</v>
       </c>
       <c r="E54" s="77">
         <v>0</v>
@@ -7826,10 +7826,10 @@
         <v>193</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E55" s="77">
         <v>0</v>
@@ -7843,10 +7843,10 @@
         <v>279</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E56" s="77">
         <v>0</v>
@@ -7864,10 +7864,10 @@
         <v>279</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E57" s="77">
         <v>0</v>
@@ -7881,10 +7881,10 @@
         <v>280</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E58" s="77">
         <v>0</v>
@@ -7902,10 +7902,10 @@
         <v>280</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E59" s="77">
         <v>0</v>
@@ -7919,10 +7919,10 @@
         <v>472</v>
       </c>
       <c r="C60" s="26" t="s">
+        <v>587</v>
+      </c>
+      <c r="D60" s="26" t="s">
         <v>588</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>589</v>
       </c>
       <c r="E60" s="70">
         <v>0</v>
@@ -7940,7 +7940,7 @@
         <v>472</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D61" s="26" t="s">
         <v>524</v>
@@ -7957,10 +7957,10 @@
         <v>506</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E62" s="70">
         <v>0</v>
@@ -7978,10 +7978,10 @@
         <v>506</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E63" s="26">
         <v>0</v>
@@ -15183,8 +15183,8 @@
   </sheetPr>
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -15513,7 +15513,7 @@
         <v>139</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>537</v>
@@ -15530,7 +15530,7 @@
         <v>139</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>538</v>
@@ -15547,7 +15547,7 @@
         <v>139</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>539</v>
@@ -15641,13 +15641,13 @@
         <v>544</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E25" s="90">
         <v>0</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -15874,13 +15874,13 @@
         <v>558</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>561</v>
+        <v>707</v>
       </c>
       <c r="E38" s="76">
         <v>3</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>561</v>
+        <v>707</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -15891,10 +15891,10 @@
         <v>190</v>
       </c>
       <c r="C39" s="26" t="s">
+        <v>561</v>
+      </c>
+      <c r="D39" s="26" t="s">
         <v>562</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>563</v>
       </c>
       <c r="E39" s="66">
         <v>1</v>
@@ -15908,16 +15908,16 @@
         <v>190</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E40" s="66">
         <v>2</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -15928,10 +15928,10 @@
         <v>190</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E41" s="66">
         <v>3</v>
@@ -15945,16 +15945,16 @@
         <v>141</v>
       </c>
       <c r="C42" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D42" s="26" t="s">
         <v>564</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>565</v>
       </c>
       <c r="E42" s="66">
         <v>1</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -15965,10 +15965,10 @@
         <v>141</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E43" s="66">
         <v>2</v>
@@ -15982,10 +15982,10 @@
         <v>141</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E44" s="66">
         <v>3</v>
@@ -15999,10 +15999,10 @@
         <v>218</v>
       </c>
       <c r="C45" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="D45" s="26" t="s">
         <v>568</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>569</v>
       </c>
       <c r="E45" s="66">
         <v>1</v>
@@ -16016,16 +16016,16 @@
         <v>218</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E46" s="66">
         <v>2</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -16036,10 +16036,10 @@
         <v>218</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E47" s="66">
         <v>3</v>
@@ -16053,10 +16053,10 @@
         <v>219</v>
       </c>
       <c r="C48" s="26" t="s">
+        <v>571</v>
+      </c>
+      <c r="D48" s="26" t="s">
         <v>572</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>573</v>
       </c>
       <c r="E48" s="66">
         <v>1</v>
@@ -16070,10 +16070,10 @@
         <v>219</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E49" s="66">
         <v>2</v>
@@ -16087,16 +16087,16 @@
         <v>219</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E50" s="66">
         <v>3</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -16107,10 +16107,10 @@
         <v>192</v>
       </c>
       <c r="C51" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="D51" s="26" t="s">
         <v>576</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>577</v>
       </c>
       <c r="E51" s="77">
         <v>0</v>
@@ -16124,16 +16124,16 @@
         <v>192</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E52" s="77">
         <v>0</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -16144,10 +16144,10 @@
         <v>192</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E53" s="77">
         <v>0</v>
@@ -16161,10 +16161,10 @@
         <v>193</v>
       </c>
       <c r="C54" s="26" t="s">
+        <v>579</v>
+      </c>
+      <c r="D54" s="26" t="s">
         <v>580</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>581</v>
       </c>
       <c r="E54" s="77">
         <v>0</v>
@@ -16182,10 +16182,10 @@
         <v>193</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D55" s="87" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E55" s="77">
         <v>0</v>
@@ -16200,16 +16200,16 @@
         <v>279</v>
       </c>
       <c r="C56" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="D56" s="26" t="s">
         <v>582</v>
       </c>
-      <c r="D56" s="26" t="s">
-        <v>583</v>
-      </c>
       <c r="E56" s="77">
         <v>0</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -16220,10 +16220,10 @@
         <v>279</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E57" s="77">
         <v>0</v>
@@ -16237,16 +16237,16 @@
         <v>280</v>
       </c>
       <c r="C58" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="D58" s="26" t="s">
         <v>585</v>
       </c>
-      <c r="D58" s="26" t="s">
-        <v>586</v>
-      </c>
       <c r="E58" s="77">
         <v>0</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -16257,10 +16257,10 @@
         <v>280</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E59" s="77">
         <v>0</v>
@@ -16274,16 +16274,16 @@
         <v>472</v>
       </c>
       <c r="C60" s="26" t="s">
+        <v>587</v>
+      </c>
+      <c r="D60" s="26" t="s">
         <v>588</v>
       </c>
-      <c r="D60" s="26" t="s">
-        <v>589</v>
-      </c>
       <c r="E60" s="70">
         <v>0</v>
       </c>
       <c r="F60" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -16294,7 +16294,7 @@
         <v>472</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D61" s="26" t="s">
         <v>524</v>
@@ -16311,10 +16311,10 @@
         <v>506</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E62" s="70">
         <v>0</v>
@@ -16332,10 +16332,10 @@
         <v>506</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E63" s="26">
         <v>0</v>
@@ -17552,8 +17552,8 @@
   </sheetPr>
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView topLeftCell="E6" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -17595,10 +17595,10 @@
         <v>136</v>
       </c>
       <c r="C2" s="26" t="s">
+        <v>591</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>592</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>593</v>
       </c>
       <c r="E2" s="70">
         <v>1</v>
@@ -17612,7 +17612,7 @@
         <v>136</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>518</v>
@@ -17629,7 +17629,7 @@
         <v>136</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>519</v>
@@ -17646,7 +17646,7 @@
         <v>136</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>520</v>
@@ -17666,7 +17666,7 @@
         <v>136</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>521</v>
@@ -17720,10 +17720,10 @@
         <v>446</v>
       </c>
       <c r="C9" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>594</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>595</v>
       </c>
       <c r="E9" s="65">
         <v>1</v>
@@ -17737,16 +17737,16 @@
         <v>446</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E10" s="65">
         <v>2</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.25">
@@ -17757,7 +17757,7 @@
         <v>446</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>528</v>
@@ -17774,7 +17774,7 @@
         <v>447</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>530</v>
@@ -17791,7 +17791,7 @@
         <v>447</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>531</v>
@@ -17808,7 +17808,7 @@
         <v>447</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>532</v>
@@ -17828,7 +17828,7 @@
         <v>138</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>534</v>
@@ -17845,7 +17845,7 @@
         <v>138</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>535</v>
@@ -17865,7 +17865,7 @@
         <v>138</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>536</v>
@@ -17882,10 +17882,10 @@
         <v>139</v>
       </c>
       <c r="C18" s="26" t="s">
+        <v>598</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>599</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>600</v>
       </c>
       <c r="E18" s="65">
         <v>1</v>
@@ -17899,10 +17899,10 @@
         <v>139</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E19" s="65">
         <v>2</v>
@@ -17916,16 +17916,16 @@
         <v>139</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E20" s="65">
         <v>3</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.25">
@@ -17936,10 +17936,10 @@
         <v>189</v>
       </c>
       <c r="C21" s="26" t="s">
+        <v>602</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>603</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>604</v>
       </c>
       <c r="E21" s="65">
         <v>1</v>
@@ -17953,16 +17953,16 @@
         <v>189</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E22" s="65">
         <v>2</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.25">
@@ -17973,10 +17973,10 @@
         <v>189</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E23" s="65">
         <v>3</v>
@@ -17990,7 +17990,7 @@
         <v>217</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>545</v>
@@ -18007,16 +18007,16 @@
         <v>217</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E25" s="90">
         <v>0</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.25">
@@ -18027,7 +18027,7 @@
         <v>217</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D26" s="26" t="s">
         <v>546</v>
@@ -18044,10 +18044,10 @@
         <v>221</v>
       </c>
       <c r="C27" s="26" t="s">
+        <v>607</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>608</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>609</v>
       </c>
       <c r="E27" s="76">
         <v>1</v>
@@ -18061,16 +18061,16 @@
         <v>221</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E28" s="76">
         <v>2</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.25">
@@ -18081,7 +18081,7 @@
         <v>221</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D29" s="26" t="s">
         <v>550</v>
@@ -18098,10 +18098,10 @@
         <v>231</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E30" s="76">
         <v>1</v>
@@ -18115,16 +18115,16 @@
         <v>231</v>
       </c>
       <c r="C31" s="26" t="s">
+        <v>610</v>
+      </c>
+      <c r="D31" s="26" t="s">
         <v>611</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>612</v>
       </c>
       <c r="E31" s="76">
         <v>2</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.25">
@@ -18135,10 +18135,10 @@
         <v>231</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E32" s="76">
         <v>3</v>
@@ -18155,7 +18155,7 @@
         <v>554</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E33" s="76">
         <v>1</v>
@@ -18172,13 +18172,13 @@
         <v>554</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E34" s="76">
         <v>3</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.25">
@@ -18192,7 +18192,7 @@
         <v>554</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E35" s="76">
         <v>2</v>
@@ -18206,10 +18206,10 @@
         <v>194</v>
       </c>
       <c r="C36" s="26" t="s">
+        <v>616</v>
+      </c>
+      <c r="D36" s="26" t="s">
         <v>617</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>618</v>
       </c>
       <c r="E36" s="76">
         <v>1</v>
@@ -18223,7 +18223,7 @@
         <v>194</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D37" s="26" t="s">
         <v>560</v>
@@ -18243,10 +18243,10 @@
         <v>194</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>561</v>
+        <v>707</v>
       </c>
       <c r="E38" s="76">
         <v>3</v>
@@ -18260,10 +18260,10 @@
         <v>190</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E39" s="66">
         <v>1</v>
@@ -18277,16 +18277,16 @@
         <v>190</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E40" s="66">
         <v>2</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.25">
@@ -18297,10 +18297,10 @@
         <v>190</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E41" s="66">
         <v>3</v>
@@ -18314,10 +18314,10 @@
         <v>141</v>
       </c>
       <c r="C42" s="26" t="s">
+        <v>621</v>
+      </c>
+      <c r="D42" s="26" t="s">
         <v>622</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>623</v>
       </c>
       <c r="E42" s="66">
         <v>1</v>
@@ -18331,16 +18331,16 @@
         <v>141</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E43" s="66">
         <v>2</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.25">
@@ -18351,10 +18351,10 @@
         <v>141</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E44" s="66">
         <v>3</v>
@@ -18368,10 +18368,10 @@
         <v>218</v>
       </c>
       <c r="C45" s="26" t="s">
+        <v>625</v>
+      </c>
+      <c r="D45" s="26" t="s">
         <v>626</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>627</v>
       </c>
       <c r="E45" s="66">
         <v>1</v>
@@ -18385,16 +18385,16 @@
         <v>218</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E46" s="66">
         <v>2</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.25">
@@ -18405,10 +18405,10 @@
         <v>218</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E47" s="66">
         <v>3</v>
@@ -18422,10 +18422,10 @@
         <v>219</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E48" s="66">
         <v>1</v>
@@ -18439,16 +18439,16 @@
         <v>219</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E49" s="66">
         <v>2</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.25">
@@ -18459,10 +18459,10 @@
         <v>219</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E50" s="66">
         <v>3</v>
@@ -18476,10 +18476,10 @@
         <v>192</v>
       </c>
       <c r="C51" s="26" t="s">
+        <v>630</v>
+      </c>
+      <c r="D51" s="26" t="s">
         <v>631</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>632</v>
       </c>
       <c r="E51" s="77">
         <v>0</v>
@@ -18493,16 +18493,16 @@
         <v>192</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E52" s="77">
         <v>0</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.25">
@@ -18513,10 +18513,10 @@
         <v>192</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E53" s="77">
         <v>0</v>
@@ -18530,10 +18530,10 @@
         <v>193</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E54" s="77">
         <v>0</v>
@@ -18551,10 +18551,10 @@
         <v>193</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D55" s="87" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E55" s="77">
         <v>0</v>
@@ -18569,16 +18569,16 @@
         <v>279</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E56" s="77">
         <v>0</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.25">
@@ -18589,10 +18589,10 @@
         <v>279</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E57" s="77">
         <v>0</v>
@@ -18606,16 +18606,16 @@
         <v>280</v>
       </c>
       <c r="C58" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="D58" s="26" t="s">
         <v>585</v>
       </c>
-      <c r="D58" s="26" t="s">
-        <v>586</v>
-      </c>
       <c r="E58" s="77">
         <v>0</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -18626,10 +18626,10 @@
         <v>280</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E59" s="77">
         <v>0</v>
@@ -18643,16 +18643,16 @@
         <v>472</v>
       </c>
       <c r="C60" s="26" t="s">
+        <v>587</v>
+      </c>
+      <c r="D60" s="26" t="s">
         <v>588</v>
       </c>
-      <c r="D60" s="26" t="s">
-        <v>589</v>
-      </c>
       <c r="E60" s="70">
         <v>0</v>
       </c>
       <c r="F60" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -18663,7 +18663,7 @@
         <v>472</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D61" s="26" t="s">
         <v>524</v>
@@ -18680,10 +18680,10 @@
         <v>506</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E62" s="70">
         <v>0</v>
@@ -18701,10 +18701,10 @@
         <v>506</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E63" s="26">
         <v>0</v>
@@ -19865,8 +19865,8 @@
   </sheetPr>
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -19908,10 +19908,10 @@
         <v>136</v>
       </c>
       <c r="C2" s="26" t="s">
+        <v>636</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>637</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>638</v>
       </c>
       <c r="E2" s="70">
         <v>1</v>
@@ -19925,7 +19925,7 @@
         <v>136</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>518</v>
@@ -19942,10 +19942,10 @@
         <v>136</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E4" s="70">
         <v>3</v>
@@ -19959,7 +19959,7 @@
         <v>136</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>520</v>
@@ -19980,7 +19980,7 @@
         <v>136</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>521</v>
@@ -19997,7 +19997,7 @@
         <v>313</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>523</v>
@@ -20018,7 +20018,7 @@
         <v>313</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>524</v>
@@ -20035,10 +20035,10 @@
         <v>447</v>
       </c>
       <c r="C9" s="26" t="s">
+        <v>640</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>641</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>642</v>
       </c>
       <c r="E9" s="65">
         <v>1</v>
@@ -20052,10 +20052,10 @@
         <v>447</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E10" s="65">
         <v>2</v>
@@ -20073,7 +20073,7 @@
         <v>447</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>532</v>
@@ -20090,7 +20090,7 @@
         <v>138</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>534</v>
@@ -20107,7 +20107,7 @@
         <v>138</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>535</v>
@@ -20128,7 +20128,7 @@
         <v>138</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>536</v>
@@ -20145,10 +20145,10 @@
         <v>139</v>
       </c>
       <c r="C15" s="26" t="s">
+        <v>644</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>645</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>646</v>
       </c>
       <c r="E15" s="65">
         <v>1</v>
@@ -20162,10 +20162,10 @@
         <v>139</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E16" s="65">
         <v>2</v>
@@ -20179,10 +20179,10 @@
         <v>139</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E17" s="65">
         <v>3</v>
@@ -20200,10 +20200,10 @@
         <v>189</v>
       </c>
       <c r="C18" s="26" t="s">
+        <v>648</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>649</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>650</v>
       </c>
       <c r="E18" s="65">
         <v>1</v>
@@ -20217,10 +20217,10 @@
         <v>189</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E19" s="65">
         <v>2</v>
@@ -20238,10 +20238,10 @@
         <v>189</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E20" s="65">
         <v>3</v>
@@ -20255,7 +20255,7 @@
         <v>217</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>545</v>
@@ -20272,10 +20272,10 @@
         <v>217</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E22" s="90">
         <v>0</v>
@@ -20293,7 +20293,7 @@
         <v>217</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>546</v>
@@ -20512,14 +20512,14 @@
         <v>558</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>561</v>
+        <v>707</v>
       </c>
       <c r="E35" s="76">
         <v>3</v>
       </c>
       <c r="F35" s="26" t="str">
         <f>D35</f>
-        <v>is widely available</v>
+        <v>is extensive</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -20530,10 +20530,10 @@
         <v>190</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E36" s="66">
         <v>1</v>
@@ -20547,10 +20547,10 @@
         <v>190</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E37" s="66">
         <v>2</v>
@@ -20568,10 +20568,10 @@
         <v>190</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E38" s="66">
         <v>3</v>
@@ -20585,10 +20585,10 @@
         <v>141</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E39" s="66">
         <v>1</v>
@@ -20606,10 +20606,10 @@
         <v>141</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E40" s="66">
         <v>2</v>
@@ -20623,10 +20623,10 @@
         <v>141</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E41" s="66">
         <v>3</v>
@@ -20640,10 +20640,10 @@
         <v>218</v>
       </c>
       <c r="C42" s="26" t="s">
+        <v>655</v>
+      </c>
+      <c r="D42" s="26" t="s">
         <v>656</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>657</v>
       </c>
       <c r="E42" s="66">
         <v>1</v>
@@ -20657,10 +20657,10 @@
         <v>218</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E43" s="66">
         <v>2</v>
@@ -20678,10 +20678,10 @@
         <v>218</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E44" s="66">
         <v>3</v>
@@ -20695,10 +20695,10 @@
         <v>219</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E45" s="66">
         <v>1</v>
@@ -20712,10 +20712,10 @@
         <v>219</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E46" s="66">
         <v>2</v>
@@ -20729,10 +20729,10 @@
         <v>219</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E47" s="66">
         <v>3</v>
@@ -20750,10 +20750,10 @@
         <v>192</v>
       </c>
       <c r="C48" s="26" t="s">
+        <v>660</v>
+      </c>
+      <c r="D48" s="26" t="s">
         <v>661</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>662</v>
       </c>
       <c r="E48" s="77">
         <v>0</v>
@@ -20767,10 +20767,10 @@
         <v>192</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E49" s="77">
         <v>0</v>
@@ -20788,10 +20788,10 @@
         <v>192</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E50" s="77">
         <v>0</v>
@@ -20805,10 +20805,10 @@
         <v>193</v>
       </c>
       <c r="C51" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="D51" s="26" t="s">
         <v>663</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>664</v>
       </c>
       <c r="E51" s="77">
         <v>0</v>
@@ -20826,10 +20826,10 @@
         <v>193</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E52" s="77">
         <v>0</v>
@@ -20843,10 +20843,10 @@
         <v>279</v>
       </c>
       <c r="C53" s="26" t="s">
+        <v>664</v>
+      </c>
+      <c r="D53" s="26" t="s">
         <v>665</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>666</v>
       </c>
       <c r="E53" s="77">
         <v>0</v>
@@ -20864,10 +20864,10 @@
         <v>279</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E54" s="77">
         <v>0</v>
@@ -20881,10 +20881,10 @@
         <v>280</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E55" s="77">
         <v>0</v>
@@ -20902,10 +20902,10 @@
         <v>280</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E56" s="77">
         <v>0</v>
@@ -20919,10 +20919,10 @@
         <v>472</v>
       </c>
       <c r="C57" s="26" t="s">
+        <v>587</v>
+      </c>
+      <c r="D57" s="26" t="s">
         <v>588</v>
-      </c>
-      <c r="D57" s="26" t="s">
-        <v>589</v>
       </c>
       <c r="E57" s="70">
         <v>0</v>
@@ -20940,7 +20940,7 @@
         <v>472</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D58" s="26" t="s">
         <v>524</v>
@@ -20957,10 +20957,10 @@
         <v>506</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E59" s="70">
         <v>0</v>
@@ -20978,10 +20978,10 @@
         <v>506</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E60" s="26">
         <v>0</v>
